--- a/Ruta Corta Taller 3.xlsx
+++ b/Ruta Corta Taller 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Desktop\Boby\Logistica\Algoritmos-Log-stica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF012D55-9239-4513-B179-D37F96F4196E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A835708-AC1E-4B0E-A105-00D0395E8ECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06409F6D-8E41-4C84-9707-69B06A7538CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{06409F6D-8E41-4C84-9707-69B06A7538CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Literal A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="45">
   <si>
     <t>Vertices</t>
   </si>
@@ -1005,9 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B338C2-E04D-47B6-829D-65491DE740D2}">
-  <dimension ref="B1:T57"/>
+  <dimension ref="B1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1171,21 +1173,21 @@
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I57" si="1">VLOOKUP(H5,$B$3:$C$20,2)</f>
+        <f t="shared" ref="I5:I56" si="1">VLOOKUP(H5,$B$3:$C$20,2)</f>
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K57" si="2">VLOOKUP(J5,$B$3:$C$20,2)</f>
+        <f t="shared" ref="K5:K56" si="2">VLOOKUP(J5,$B$3:$C$20,2)</f>
         <v>4</v>
       </c>
       <c r="L5" s="2">
         <v>41</v>
       </c>
       <c r="M5" s="12" t="str">
-        <f t="shared" ref="M5:M57" si="3">CONCATENATE(I5,",",K5,",",L5)</f>
+        <f t="shared" ref="M5:M56" si="3">CONCATENATE(I5,",",K5,",",L5)</f>
         <v>1,4,41</v>
       </c>
       <c r="O5" s="17">
@@ -2005,18 +2007,18 @@
         <v>7</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L22" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M22" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>7,10,40</v>
+        <v>7,8,10</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -2028,18 +2030,18 @@
         <v>7</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L23" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M23" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>7,8,10</v>
+        <v>7,5,45</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
@@ -2051,41 +2053,41 @@
         <v>7</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" s="2">
         <v>45</v>
       </c>
       <c r="M24" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>7,5,45</v>
+        <v>7,4,45</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="H25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L25" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M25" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>7,4,45</v>
+        <v>8,10,30</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -2097,18 +2099,18 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K26" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="L26" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M26" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>8,10,30</v>
+        <v>8,11,20</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -2120,42 +2122,42 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M27" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>8,11,20</v>
+        <v>8,5,25</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C28" s="16"/>
       <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L28" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M28" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>8,5,25</v>
+        <v>9,12,10</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
@@ -2167,18 +2169,18 @@
         <v>9</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L29" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M29" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>9,12,10</v>
+        <v>9,10,9</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -2190,41 +2192,41 @@
         <v>9</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L30" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M30" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>9,10,9</v>
+        <v>9,6,22</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L31" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M31" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>9,6,22</v>
+        <v>10,13,30</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -2236,18 +2238,18 @@
         <v>10</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="K32" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
       <c r="L32" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M32" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>10,13,30</v>
+        <v>10,14,40</v>
       </c>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.3">
@@ -2259,18 +2261,18 @@
         <v>10</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L33" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M33" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>10,14,40</v>
+        <v>10,11,20</v>
       </c>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.3">
@@ -2282,18 +2284,18 @@
         <v>10</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L34" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M34" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>10,11,20</v>
+        <v>10,7,40</v>
       </c>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.3">
@@ -2305,41 +2307,41 @@
         <v>10</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L35" s="2">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M35" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>10,7,40</v>
+        <v>10,6,12</v>
       </c>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="J36" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L36" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M36" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>10,6,12</v>
+        <v>11,10,20</v>
       </c>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.3">
@@ -2351,41 +2353,41 @@
         <v>11</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L37" s="2">
         <v>20</v>
       </c>
       <c r="M37" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>11,10,20</v>
+        <v>11,8,20</v>
       </c>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I38" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
       <c r="J38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L38" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M38" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>11,8,20</v>
+        <v>12,15,25</v>
       </c>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.3">
@@ -2397,18 +2399,18 @@
         <v>12</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L39" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M39" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>12,15,25</v>
+        <v>12,13,18</v>
       </c>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.3">
@@ -2420,18 +2422,18 @@
         <v>12</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L40" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M40" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>12,13,18</v>
+        <v>12,10,21</v>
       </c>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.3">
@@ -2443,41 +2445,41 @@
         <v>12</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L41" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M41" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>12,10,21</v>
+        <v>12,9,10</v>
       </c>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I42" s="2">
-        <f t="shared" si="1"/>
+      <c r="J42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
       <c r="L42" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M42" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>12,9,10</v>
+        <v>13,12,18</v>
       </c>
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.3">
@@ -2489,18 +2491,18 @@
         <v>13</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L43" s="2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M43" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>13,12,18</v>
+        <v>13,16,45</v>
       </c>
     </row>
     <row r="44" spans="8:13" x14ac:dyDescent="0.3">
@@ -2512,18 +2514,18 @@
         <v>13</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K44" s="2">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
       <c r="L44" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M44" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>13,16,45</v>
+        <v>13,17,25</v>
       </c>
     </row>
     <row r="45" spans="8:13" x14ac:dyDescent="0.3">
@@ -2535,18 +2537,18 @@
         <v>13</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L45" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M45" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>13,17,25</v>
+        <v>13,14,15</v>
       </c>
     </row>
     <row r="46" spans="8:13" x14ac:dyDescent="0.3">
@@ -2558,41 +2560,41 @@
         <v>13</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L46" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M46" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>13,14,15</v>
+        <v>13,10,30</v>
       </c>
     </row>
     <row r="47" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I47" s="2">
-        <f t="shared" si="1"/>
+      <c r="J47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="L47" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M47" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>13,10,30</v>
+        <v>14,13,15</v>
       </c>
     </row>
     <row r="48" spans="8:13" x14ac:dyDescent="0.3">
@@ -2604,18 +2606,18 @@
         <v>14</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L48" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M48" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>14,13,15</v>
+        <v>14,17,22</v>
       </c>
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.3">
@@ -2627,18 +2629,18 @@
         <v>14</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L49" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M49" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>14,17,22</v>
+        <v>14,11,10</v>
       </c>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.3">
@@ -2650,41 +2652,41 @@
         <v>14</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L50" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M50" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>14,11,10</v>
+        <v>14,10,40</v>
       </c>
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I51" s="2">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
       <c r="J51" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L51" s="2">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M51" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>14,10,40</v>
+        <v>15,16,16</v>
       </c>
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.3">
@@ -2696,41 +2698,41 @@
         <v>15</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L52" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M52" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>15,16,16</v>
+        <v>15,12,25</v>
       </c>
     </row>
     <row r="53" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I53" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
       <c r="J53" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L53" s="2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M53" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>15,12,25</v>
+        <v>16,17,8</v>
       </c>
     </row>
     <row r="54" spans="8:13" x14ac:dyDescent="0.3">
@@ -2742,85 +2744,62 @@
         <v>16</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L54" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M54" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>16,17,8</v>
+        <v>16,13,45</v>
       </c>
     </row>
     <row r="55" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I55" s="2">
-        <f t="shared" si="1"/>
+      <c r="J55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="L55" s="2">
+        <v>8</v>
+      </c>
+      <c r="M55" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>17,16,8</v>
+      </c>
+    </row>
+    <row r="56" spans="8:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="K55" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="L55" s="2">
-        <v>45</v>
-      </c>
-      <c r="M55" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>16,13,45</v>
-      </c>
-    </row>
-    <row r="56" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="2">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="L56" s="2">
-        <v>8</v>
-      </c>
-      <c r="M56" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>17,16,8</v>
-      </c>
-    </row>
-    <row r="57" spans="8:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="5">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K57" s="5">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="L57" s="5">
+      <c r="L56" s="5">
         <v>22</v>
       </c>
-      <c r="M57" s="13" t="str">
+      <c r="M56" s="13" t="str">
         <f t="shared" si="3"/>
         <v>17,14,22</v>
       </c>
@@ -2840,10 +2819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD180483-AFE1-40AC-8052-32279124959E}">
-  <dimension ref="B1:R57"/>
+  <dimension ref="B1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:R12"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3003,25 +2982,25 @@
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I57" si="1">VLOOKUP(H5,$B$3:$C$20,2)</f>
+        <f t="shared" ref="I5:I56" si="1">VLOOKUP(H5,$B$3:$C$20,2)</f>
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K57" si="2">VLOOKUP(J5,$B$3:$C$20,2)</f>
+        <f t="shared" ref="K5:K56" si="2">VLOOKUP(J5,$B$3:$C$20,2)</f>
         <v>4</v>
       </c>
       <c r="L5" s="2">
         <v>41</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" ref="M5:M57" si="3">IF(OR(J5="J",J5="L"),30,0)</f>
+        <f t="shared" ref="M5:M56" si="3">IF(OR(J5="J",J5="L"),30,0)</f>
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" ref="N5:N57" si="4">L5+M5</f>
+        <f t="shared" ref="N5:N56" si="4">L5+M5</f>
         <v>41</v>
       </c>
       <c r="O5" s="12" t="str">
@@ -3079,15 +3058,15 @@
         <v>25</v>
       </c>
       <c r="O6" s="12" t="str">
-        <f t="shared" ref="O6:O57" si="6">CONCATENATE(I6,",",K6,",",N6)</f>
+        <f t="shared" ref="O6:O56" si="6">CONCATENATE(I6,",",K6,",",N6)</f>
         <v>2,5,25</v>
       </c>
       <c r="Q6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>D</v>
+        <v>F</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
@@ -3137,11 +3116,11 @@
         <v>3,0,40</v>
       </c>
       <c r="Q7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>H</v>
+        <v>I</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
@@ -3830,14 +3809,14 @@
         <v>7</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L22" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
@@ -3845,11 +3824,11 @@
       </c>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O22" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>7,10,40</v>
+        <v>7,8,10</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
@@ -3861,14 +3840,14 @@
         <v>7</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L23" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
@@ -3876,11 +3855,11 @@
       </c>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="O23" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>7,8,10</v>
+        <v>7,5,45</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
@@ -3892,11 +3871,11 @@
         <v>7</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" s="2">
         <v>45</v>
@@ -3911,26 +3890,26 @@
       </c>
       <c r="O24" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>7,5,45</v>
+        <v>7,4,45</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L25" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
@@ -3938,11 +3917,11 @@
       </c>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="O25" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>7,4,45</v>
+        <v>8,10,30</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
@@ -3954,26 +3933,26 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K26" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="L26" s="2">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M26" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O26" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>8,10,30</v>
+        <v>8,11,50</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
@@ -3985,46 +3964,46 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O27" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>8,11,50</v>
+        <v>8,5,25</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C28" s="16"/>
       <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L28" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
@@ -4032,11 +4011,11 @@
       </c>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O28" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>8,5,25</v>
+        <v>9,12,10</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
@@ -4048,14 +4027,14 @@
         <v>9</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L29" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
@@ -4063,11 +4042,11 @@
       </c>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O29" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>9,12,10</v>
+        <v>9,10,9</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
@@ -4079,14 +4058,14 @@
         <v>9</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L30" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
@@ -4094,30 +4073,30 @@
       </c>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="O30" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>9,10,9</v>
+        <v>9,6,22</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L31" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
@@ -4125,11 +4104,11 @@
       </c>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O31" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>9,6,22</v>
+        <v>10,13,30</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
@@ -4141,14 +4120,14 @@
         <v>10</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="K32" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
       <c r="L32" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
@@ -4156,11 +4135,11 @@
       </c>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O32" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>10,13,30</v>
+        <v>10,14,40</v>
       </c>
     </row>
     <row r="33" spans="8:15" x14ac:dyDescent="0.3">
@@ -4172,26 +4151,26 @@
         <v>10</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L33" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O33" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>10,14,40</v>
+        <v>10,11,50</v>
       </c>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.3">
@@ -4203,26 +4182,26 @@
         <v>10</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L34" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O34" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>10,11,50</v>
+        <v>10,7,40</v>
       </c>
     </row>
     <row r="35" spans="8:15" x14ac:dyDescent="0.3">
@@ -4234,14 +4213,14 @@
         <v>10</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L35" s="2">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
@@ -4249,30 +4228,30 @@
       </c>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="O35" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>10,7,40</v>
+        <v>10,6,12</v>
       </c>
     </row>
     <row r="36" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="J36" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L36" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
@@ -4280,11 +4259,11 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O36" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>10,6,12</v>
+        <v>11,10,20</v>
       </c>
     </row>
     <row r="37" spans="8:15" x14ac:dyDescent="0.3">
@@ -4296,11 +4275,11 @@
         <v>11</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L37" s="2">
         <v>20</v>
@@ -4315,26 +4294,26 @@
       </c>
       <c r="O37" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>11,10,20</v>
+        <v>11,8,20</v>
       </c>
     </row>
     <row r="38" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I38" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
       <c r="J38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L38" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
@@ -4342,11 +4321,11 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O38" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>11,8,20</v>
+        <v>12,15,25</v>
       </c>
     </row>
     <row r="39" spans="8:15" x14ac:dyDescent="0.3">
@@ -4358,14 +4337,14 @@
         <v>12</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L39" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
@@ -4373,11 +4352,11 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O39" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>12,15,25</v>
+        <v>12,13,18</v>
       </c>
     </row>
     <row r="40" spans="8:15" x14ac:dyDescent="0.3">
@@ -4389,14 +4368,14 @@
         <v>12</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L40" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
@@ -4404,11 +4383,11 @@
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O40" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>12,13,18</v>
+        <v>12,10,21</v>
       </c>
     </row>
     <row r="41" spans="8:15" x14ac:dyDescent="0.3">
@@ -4420,57 +4399,57 @@
         <v>12</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L41" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="O41" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>12,10,21</v>
+        <v>12,9,40</v>
       </c>
     </row>
     <row r="42" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I42" s="2">
-        <f t="shared" si="1"/>
+      <c r="J42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
       <c r="L42" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O42" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>12,9,40</v>
+        <v>13,12,18</v>
       </c>
     </row>
     <row r="43" spans="8:15" x14ac:dyDescent="0.3">
@@ -4482,14 +4461,14 @@
         <v>13</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L43" s="2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
@@ -4497,11 +4476,11 @@
       </c>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="O43" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>13,12,18</v>
+        <v>13,16,45</v>
       </c>
     </row>
     <row r="44" spans="8:15" x14ac:dyDescent="0.3">
@@ -4513,14 +4492,14 @@
         <v>13</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K44" s="2">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
       <c r="L44" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
@@ -4528,11 +4507,11 @@
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O44" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>13,16,45</v>
+        <v>13,17,25</v>
       </c>
     </row>
     <row r="45" spans="8:15" x14ac:dyDescent="0.3">
@@ -4544,14 +4523,14 @@
         <v>13</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L45" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
@@ -4559,11 +4538,11 @@
       </c>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O45" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>13,17,25</v>
+        <v>13,14,15</v>
       </c>
     </row>
     <row r="46" spans="8:15" x14ac:dyDescent="0.3">
@@ -4575,14 +4554,14 @@
         <v>13</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L46" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
@@ -4590,30 +4569,30 @@
       </c>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="O46" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>13,14,15</v>
+        <v>13,10,30</v>
       </c>
     </row>
     <row r="47" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I47" s="2">
-        <f t="shared" si="1"/>
+      <c r="J47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="L47" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
@@ -4621,11 +4600,11 @@
       </c>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="O47" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>13,10,30</v>
+        <v>14,13,15</v>
       </c>
     </row>
     <row r="48" spans="8:15" x14ac:dyDescent="0.3">
@@ -4637,14 +4616,14 @@
         <v>14</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L48" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
@@ -4652,11 +4631,11 @@
       </c>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="O48" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>14,13,15</v>
+        <v>14,17,22</v>
       </c>
     </row>
     <row r="49" spans="8:15" x14ac:dyDescent="0.3">
@@ -4668,26 +4647,26 @@
         <v>14</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L49" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="O49" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>14,17,22</v>
+        <v>14,11,40</v>
       </c>
     </row>
     <row r="50" spans="8:15" x14ac:dyDescent="0.3">
@@ -4699,18 +4678,18 @@
         <v>14</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L50" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="4"/>
@@ -4718,26 +4697,26 @@
       </c>
       <c r="O50" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>14,11,40</v>
+        <v>14,10,40</v>
       </c>
     </row>
     <row r="51" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I51" s="2">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
       <c r="J51" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L51" s="2">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
@@ -4745,11 +4724,11 @@
       </c>
       <c r="N51" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="O51" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>14,10,40</v>
+        <v>15,16,16</v>
       </c>
     </row>
     <row r="52" spans="8:15" x14ac:dyDescent="0.3">
@@ -4761,14 +4740,14 @@
         <v>15</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L52" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
@@ -4776,30 +4755,30 @@
       </c>
       <c r="N52" s="2">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O52" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>15,16,16</v>
+        <v>15,12,25</v>
       </c>
     </row>
     <row r="53" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I53" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
       <c r="J53" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L53" s="2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
@@ -4807,11 +4786,11 @@
       </c>
       <c r="N53" s="2">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="O53" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>15,12,25</v>
+        <v>16,17,8</v>
       </c>
     </row>
     <row r="54" spans="8:15" x14ac:dyDescent="0.3">
@@ -4823,14 +4802,14 @@
         <v>16</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L54" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
@@ -4838,30 +4817,30 @@
       </c>
       <c r="N54" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="O54" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>16,17,8</v>
+        <v>16,13,45</v>
       </c>
     </row>
     <row r="55" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I55" s="2">
-        <f t="shared" si="1"/>
+      <c r="J55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
       <c r="L55" s="2">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
@@ -4869,71 +4848,40 @@
       </c>
       <c r="N55" s="2">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="O55" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>16,13,45</v>
-      </c>
-    </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H56" s="1" t="s">
+        <v>17,16,8</v>
+      </c>
+    </row>
+    <row r="56" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="L56" s="2">
-        <v>8</v>
-      </c>
-      <c r="M56" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O56" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>17,16,8</v>
-      </c>
-    </row>
-    <row r="57" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="5">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J57" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K56" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L56" s="5">
         <v>22</v>
       </c>
-      <c r="M57" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="5">
+      <c r="M56" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="O57" s="13" t="str">
+      <c r="O56" s="13" t="str">
         <f t="shared" si="6"/>
         <v>17,14,22</v>
       </c>
@@ -4950,10 +4898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B565FC63-1AC0-4C4F-9785-BA9EFD475ABD}">
-  <dimension ref="B1:Z58"/>
+  <dimension ref="B1:Z57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5167,25 +5115,25 @@
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I57" si="1">VLOOKUP(H5,$B$3:$C$20,2)</f>
+        <f t="shared" ref="I5:I56" si="1">VLOOKUP(H5,$B$3:$C$20,2)</f>
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K57" si="2">VLOOKUP(J5,$B$3:$C$20,2)</f>
+        <f t="shared" ref="K5:K56" si="2">VLOOKUP(J5,$B$3:$C$20,2)</f>
         <v>4</v>
       </c>
       <c r="L5" s="2">
         <v>41</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" ref="M5:M58" si="3">IF(OR(J5="J",J5="L"),30,0)</f>
+        <f t="shared" ref="M5:M57" si="3">IF(OR(J5="J",J5="L"),30,0)</f>
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" ref="N5:N58" si="4">L5+M5</f>
+        <f t="shared" ref="N5:N57" si="4">L5+M5</f>
         <v>41</v>
       </c>
       <c r="O5" s="3" t="str">
@@ -5257,22 +5205,22 @@
         <v>25</v>
       </c>
       <c r="O6" s="3" t="str">
-        <f t="shared" ref="O6:O58" si="8">CONCATENATE(I6,",",K6,",",N6)</f>
+        <f t="shared" ref="O6:O57" si="8">CONCATENATE(I6,",",K6,",",N6)</f>
         <v>2,5,25</v>
       </c>
       <c r="Q6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="T6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U6" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="X6" s="1">
         <v>3</v>
@@ -5329,18 +5277,18 @@
         <v>3,0,40</v>
       </c>
       <c r="Q7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>H</v>
+        <v>I</v>
       </c>
       <c r="T7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U7" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>H</v>
+        <v>I</v>
       </c>
       <c r="X7" s="1">
         <v>7</v>
@@ -6104,14 +6052,14 @@
         <v>7</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L22" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
@@ -6119,11 +6067,11 @@
       </c>
       <c r="N22" s="3">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O22" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7,10,40</v>
+        <v>7,8,10</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
@@ -6135,14 +6083,14 @@
         <v>7</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L23" s="2">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
@@ -6150,11 +6098,11 @@
       </c>
       <c r="N23" s="3">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="O23" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7,8,10</v>
+        <v>7,5,45</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
@@ -6166,11 +6114,11 @@
         <v>7</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" s="2">
         <v>45</v>
@@ -6185,26 +6133,26 @@
       </c>
       <c r="O24" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7,5,45</v>
+        <v>7,4,45</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L25" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
@@ -6212,11 +6160,11 @@
       </c>
       <c r="N25" s="3">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="O25" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7,4,45</v>
+        <v>8,10,30</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
@@ -6228,26 +6176,26 @@
         <v>8</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K26" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="L26" s="2">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M26" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O26" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>8,10,30</v>
+        <v>8,11,50</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
@@ -6259,46 +6207,46 @@
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O27" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>8,11,50</v>
+        <v>8,5,25</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C28" s="16"/>
       <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L28" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
@@ -6306,11 +6254,11 @@
       </c>
       <c r="N28" s="3">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O28" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>8,5,25</v>
+        <v>9,12,10</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
@@ -6322,14 +6270,14 @@
         <v>9</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L29" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
@@ -6337,11 +6285,11 @@
       </c>
       <c r="N29" s="3">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O29" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>9,12,10</v>
+        <v>9,10,9</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
@@ -6353,14 +6301,14 @@
         <v>9</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L30" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
@@ -6368,30 +6316,30 @@
       </c>
       <c r="N30" s="3">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="O30" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>9,10,9</v>
+        <v>9,6,22</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L31" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
@@ -6399,11 +6347,11 @@
       </c>
       <c r="N31" s="3">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O31" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>9,6,22</v>
+        <v>10,13,30</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
@@ -6415,14 +6363,14 @@
         <v>10</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="K32" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
       <c r="L32" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
@@ -6430,11 +6378,11 @@
       </c>
       <c r="N32" s="3">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O32" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>10,13,30</v>
+        <v>10,14,40</v>
       </c>
     </row>
     <row r="33" spans="8:15" x14ac:dyDescent="0.3">
@@ -6446,26 +6394,26 @@
         <v>10</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L33" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O33" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>10,14,40</v>
+        <v>10,11,50</v>
       </c>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.3">
@@ -6477,26 +6425,26 @@
         <v>10</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L34" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O34" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>10,11,50</v>
+        <v>10,7,40</v>
       </c>
     </row>
     <row r="35" spans="8:15" x14ac:dyDescent="0.3">
@@ -6508,14 +6456,14 @@
         <v>10</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L35" s="2">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
@@ -6523,30 +6471,30 @@
       </c>
       <c r="N35" s="3">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="O35" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>10,7,40</v>
+        <v>10,6,12</v>
       </c>
     </row>
     <row r="36" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="J36" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L36" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
@@ -6554,11 +6502,11 @@
       </c>
       <c r="N36" s="3">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O36" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>10,6,12</v>
+        <v>11,10,20</v>
       </c>
     </row>
     <row r="37" spans="8:15" x14ac:dyDescent="0.3">
@@ -6570,11 +6518,11 @@
         <v>11</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L37" s="2">
         <v>20</v>
@@ -6589,26 +6537,26 @@
       </c>
       <c r="O37" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>11,10,20</v>
+        <v>11,8,20</v>
       </c>
     </row>
     <row r="38" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I38" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
       <c r="J38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L38" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
@@ -6616,11 +6564,11 @@
       </c>
       <c r="N38" s="3">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O38" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>11,8,20</v>
+        <v>12,15,25</v>
       </c>
     </row>
     <row r="39" spans="8:15" x14ac:dyDescent="0.3">
@@ -6632,14 +6580,14 @@
         <v>12</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L39" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
@@ -6647,11 +6595,11 @@
       </c>
       <c r="N39" s="3">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O39" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>12,15,25</v>
+        <v>12,13,18</v>
       </c>
     </row>
     <row r="40" spans="8:15" x14ac:dyDescent="0.3">
@@ -6663,14 +6611,14 @@
         <v>12</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L40" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
@@ -6678,11 +6626,11 @@
       </c>
       <c r="N40" s="3">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O40" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>12,13,18</v>
+        <v>12,10,21</v>
       </c>
     </row>
     <row r="41" spans="8:15" x14ac:dyDescent="0.3">
@@ -6694,57 +6642,57 @@
         <v>12</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L41" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N41" s="3">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="O41" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>12,10,21</v>
+        <v>12,9,40</v>
       </c>
     </row>
     <row r="42" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I42" s="2">
-        <f t="shared" si="1"/>
+      <c r="J42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
       <c r="L42" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O42" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>12,9,40</v>
+        <v>13,12,18</v>
       </c>
     </row>
     <row r="43" spans="8:15" x14ac:dyDescent="0.3">
@@ -6756,14 +6704,14 @@
         <v>13</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L43" s="2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
@@ -6771,11 +6719,11 @@
       </c>
       <c r="N43" s="3">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="O43" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>13,12,18</v>
+        <v>13,16,45</v>
       </c>
     </row>
     <row r="44" spans="8:15" x14ac:dyDescent="0.3">
@@ -6787,14 +6735,14 @@
         <v>13</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K44" s="2">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
       <c r="L44" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
@@ -6802,11 +6750,11 @@
       </c>
       <c r="N44" s="3">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O44" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>13,16,45</v>
+        <v>13,17,25</v>
       </c>
     </row>
     <row r="45" spans="8:15" x14ac:dyDescent="0.3">
@@ -6818,14 +6766,14 @@
         <v>13</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L45" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
@@ -6833,11 +6781,11 @@
       </c>
       <c r="N45" s="3">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O45" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>13,17,25</v>
+        <v>13,14,15</v>
       </c>
     </row>
     <row r="46" spans="8:15" x14ac:dyDescent="0.3">
@@ -6849,14 +6797,14 @@
         <v>13</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L46" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="3"/>
@@ -6864,30 +6812,30 @@
       </c>
       <c r="N46" s="3">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="O46" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>13,14,15</v>
+        <v>13,10,30</v>
       </c>
     </row>
     <row r="47" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I47" s="2">
-        <f t="shared" si="1"/>
+      <c r="J47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="L47" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="3"/>
@@ -6895,11 +6843,11 @@
       </c>
       <c r="N47" s="3">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="O47" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>13,10,30</v>
+        <v>14,13,15</v>
       </c>
     </row>
     <row r="48" spans="8:15" x14ac:dyDescent="0.3">
@@ -6911,14 +6859,14 @@
         <v>14</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L48" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
@@ -6926,11 +6874,11 @@
       </c>
       <c r="N48" s="3">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="O48" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>14,13,15</v>
+        <v>14,17,22</v>
       </c>
     </row>
     <row r="49" spans="8:15" x14ac:dyDescent="0.3">
@@ -6942,26 +6890,26 @@
         <v>14</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L49" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N49" s="3">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="O49" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>14,17,22</v>
+        <v>14,11,40</v>
       </c>
     </row>
     <row r="50" spans="8:15" x14ac:dyDescent="0.3">
@@ -6973,18 +6921,18 @@
         <v>14</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L50" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N50" s="3">
         <f t="shared" si="4"/>
@@ -6992,26 +6940,26 @@
       </c>
       <c r="O50" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>14,11,40</v>
+        <v>14,10,40</v>
       </c>
     </row>
     <row r="51" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I51" s="2">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
       <c r="J51" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L51" s="2">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
@@ -7019,11 +6967,11 @@
       </c>
       <c r="N51" s="3">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="O51" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>14,10,40</v>
+        <v>15,16,16</v>
       </c>
     </row>
     <row r="52" spans="8:15" x14ac:dyDescent="0.3">
@@ -7035,14 +6983,14 @@
         <v>15</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L52" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
@@ -7050,30 +6998,30 @@
       </c>
       <c r="N52" s="3">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O52" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15,16,16</v>
+        <v>15,12,25</v>
       </c>
     </row>
     <row r="53" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I53" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
       <c r="J53" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L53" s="2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
@@ -7081,11 +7029,11 @@
       </c>
       <c r="N53" s="3">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="O53" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15,12,25</v>
+        <v>16,17,8</v>
       </c>
     </row>
     <row r="54" spans="8:15" x14ac:dyDescent="0.3">
@@ -7097,14 +7045,14 @@
         <v>16</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L54" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
@@ -7112,30 +7060,30 @@
       </c>
       <c r="N54" s="3">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="O54" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>16,17,8</v>
+        <v>16,13,45</v>
       </c>
     </row>
     <row r="55" spans="8:15" x14ac:dyDescent="0.3">
       <c r="H55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I55" s="2">
-        <f t="shared" si="1"/>
+      <c r="J55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
       <c r="L55" s="2">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
@@ -7143,103 +7091,72 @@
       </c>
       <c r="N55" s="3">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="O55" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>16,13,45</v>
-      </c>
-    </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H56" s="1" t="s">
+        <v>17,16,8</v>
+      </c>
+    </row>
+    <row r="56" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="L56" s="2">
-        <v>8</v>
-      </c>
-      <c r="M56" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="3">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O56" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>17,16,8</v>
-      </c>
-    </row>
-    <row r="57" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="5">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J57" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K56" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L56" s="5">
         <v>22</v>
       </c>
-      <c r="M57" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="6">
+      <c r="M56" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="O57" s="6" t="str">
+      <c r="O56" s="6" t="str">
         <f t="shared" si="8"/>
         <v>17,14,22</v>
       </c>
     </row>
-    <row r="58" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H58" s="24" t="s">
+    <row r="57" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H57" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="25">
-        <f>VLOOKUP(H58,$B$3:$C$20,2)</f>
+      <c r="I57" s="25">
+        <f>VLOOKUP(H57,$B$3:$C$20,2)</f>
         <v>13</v>
       </c>
-      <c r="J58" s="25" t="s">
+      <c r="J57" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="25">
-        <f>VLOOKUP(J58,$B$3:$C$20,2)</f>
+      <c r="K57" s="25">
+        <f>VLOOKUP(J57,$B$3:$C$20,2)</f>
         <v>15</v>
       </c>
-      <c r="L58" s="25">
+      <c r="L57" s="25">
         <f>Z3</f>
         <v>16</v>
       </c>
-      <c r="M58" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="26">
+      <c r="M57" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="26">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="O58" s="26" t="str">
+      <c r="O57" s="26" t="str">
         <f t="shared" si="8"/>
         <v>13,15,16</v>
       </c>
